--- a/short video_NewQoE - Copy.xlsx
+++ b/short video_NewQoE - Copy.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68249BF9-6C67-4632-BC44-F022ED080A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260A1B5-7638-4607-97C9-876D00DF48F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="732" yWindow="1188" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
     <sheet name="30" sheetId="11" r:id="rId2"/>
     <sheet name="20" sheetId="12" r:id="rId3"/>
-    <sheet name="50 user traces" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
+    <sheet name="M" sheetId="15" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="26">
   <si>
     <t>Fix B</t>
   </si>
@@ -100,6 +102,24 @@
   </si>
   <si>
     <t>QoE_avg</t>
+  </si>
+  <si>
+    <t>M = 10</t>
+  </si>
+  <si>
+    <t>M = 8</t>
+  </si>
+  <si>
+    <t>M = 6</t>
+  </si>
+  <si>
+    <t>M = 4</t>
+  </si>
+  <si>
+    <t>M = 2</t>
+  </si>
+  <si>
+    <t>phong</t>
   </si>
 </sst>
 </file>
@@ -4033,11 +4053,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$B$1</c:f>
+              <c:f>M!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>M = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4054,7 +4074,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c:f>
+              <c:f>(M!$B$5,M!$B$12,M!$B$19,M!$B$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4075,7 +4095,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F9A9-49CF-A12E-4081D2108C31}"/>
+              <c16:uniqueId val="{00000000-77CD-40DE-9B54-196F8C3CF6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4084,11 +4104,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$C$1</c:f>
+              <c:f>M!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>M = 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4105,7 +4125,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c:f>
+              <c:f>(M!$C$5,M!$C$12,M!$C$19,M!$C$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4126,7 +4146,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F9A9-49CF-A12E-4081D2108C31}"/>
+              <c16:uniqueId val="{00000001-77CD-40DE-9B54-196F8C3CF6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4135,11 +4155,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$D$1</c:f>
+              <c:f>M!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>M = 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4158,7 +4178,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$D$5,'50 user traces'!$D$12,'50 user traces'!$D$19,'50 user traces'!$D$26)</c:f>
+              <c:f>(M!$D$5,M!$D$12,M!$D$19,M!$D$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4179,7 +4199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F9A9-49CF-A12E-4081D2108C31}"/>
+              <c16:uniqueId val="{00000002-77CD-40DE-9B54-196F8C3CF6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4188,11 +4208,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$E$1</c:f>
+              <c:f>M!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>M = 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4209,7 +4229,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c:f>
+              <c:f>(M!$E$5,M!$E$12,M!$E$19,M!$E$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4230,58 +4250,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F9A9-49CF-A12E-4081D2108C31}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$F$5,'50 user traces'!$F$12,'50 user traces'!$F$19,'50 user traces'!$F$26)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3375.6604629999902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2110.3595730000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1550.948312</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2310.32883699999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F9A9-49CF-A12E-4081D2108C31}"/>
+              <c16:uniqueId val="{00000003-77CD-40DE-9B54-196F8C3CF6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4290,9 +4259,12 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$G$1</c:f>
+              <c:f>M!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 2</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4308,16 +4280,28 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$G$5,'50 user traces'!$G$12,'50 user traces'!$G$19,'50 user traces'!$G$26)</c:f>
+              <c:f>(M!$G$5,M!$G$12,M!$G$19,M!$G$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3375.6604629999902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2110.3595730000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1550.948312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2310.32883699999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F9A9-49CF-A12E-4081D2108C31}"/>
+              <c16:uniqueId val="{00000005-77CD-40DE-9B54-196F8C3CF6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4332,6 +4316,60 @@
         <c:gapWidth val="70"/>
         <c:axId val="644726432"/>
         <c:axId val="644725600"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>M!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(M!$F$5,M!$F$12,M!$F$19,M!$F$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-77CD-40DE-9B54-196F8C3CF6B8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="644726432"/>
@@ -4654,11 +4692,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$B$1</c:f>
+              <c:f>M!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>M = 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4675,7 +4713,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$B$4,'50 user traces'!$B$11,'50 user traces'!$B$18,'50 user traces'!$B$25)</c:f>
+              <c:f>(M!$B$4,M!$B$11,M!$B$18,M!$B$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4696,7 +4734,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA6B-4367-9B6E-8466B364E991}"/>
+              <c16:uniqueId val="{00000000-017F-4C75-937D-A5928F4065F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4705,11 +4743,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$C$1</c:f>
+              <c:f>M!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>M = 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4726,7 +4764,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c:f>
+              <c:f>(M!$C$4,M!$C$11,M!$C$18,M!$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4747,7 +4785,7 @@
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA6B-4367-9B6E-8466B364E991}"/>
+              <c16:uniqueId val="{00000001-017F-4C75-937D-A5928F4065F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4756,11 +4794,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$D$1</c:f>
+              <c:f>M!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>M = 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4777,7 +4815,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$D$4,'50 user traces'!$D$11,'50 user traces'!$D$18,'50 user traces'!$D$25)</c:f>
+              <c:f>(M!$D$4,M!$D$11,M!$D$18,M!$D$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4798,7 +4836,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA6B-4367-9B6E-8466B364E991}"/>
+              <c16:uniqueId val="{00000002-017F-4C75-937D-A5928F4065F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4807,11 +4845,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$E$1</c:f>
+              <c:f>M!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>M = 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4828,7 +4866,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$E$4,'50 user traces'!$E$11,'50 user traces'!$E$18,'50 user traces'!$E$25)</c:f>
+              <c:f>(M!$E$4,M!$E$11,M!$E$18,M!$E$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4849,68 +4887,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA6B-4367-9B6E-8466B364E991}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-9594-4268-A192-9D0D8109228A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$F$4,'50 user traces'!$F$11,'50 user traces'!$F$18,'50 user traces'!$F$25)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>134.32521489999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.562141150000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.139313299999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66.935611850000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CA6B-4367-9B6E-8466B364E991}"/>
+              <c16:uniqueId val="{00000003-017F-4C75-937D-A5928F4065F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4919,9 +4896,12 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'50 user traces'!$G$1</c:f>
+              <c:f>M!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 2</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4937,16 +4917,28 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('50 user traces'!$G$4,'50 user traces'!$G$11,'50 user traces'!$G$18,'50 user traces'!$G$25)</c:f>
+              <c:f>(M!$G$4,M!$G$11,M!$G$18,M!$G$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134.32521489999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.562141150000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.139313299999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.935611850000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CA6B-4367-9B6E-8466B364E991}"/>
+              <c16:uniqueId val="{00000006-017F-4C75-937D-A5928F4065F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4961,7 +4953,70 @@
         <c:gapWidth val="70"/>
         <c:axId val="836325408"/>
         <c:axId val="836328736"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>M!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:invertIfNegative val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000004-017F-4C75-937D-A5928F4065F3}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(M!$F$4,M!$F$11,M!$F$18,M!$F$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-017F-4C75-937D-A5928F4065F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="836325408"/>
@@ -9600,16 +9655,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>436033</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603673</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9636,16 +9691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>395395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>39794</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9839,23 +9894,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>596053</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1693</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB7448A-2CF9-4377-B768-3DA8259BE274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459952BE-30D1-4EB6-A38B-707557C73C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9877,23 +9932,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>113455</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265855</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C70EE6-9F32-4462-8673-553C012C587A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA679B-2B84-48A3-874A-A6433206BE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9916,10 +9971,298 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="42"/>
+      <sheetName val="30"/>
+      <sheetName val="20"/>
+      <sheetName val="50 user traces"/>
+      <sheetName val="100 user traces"/>
+      <sheetName val="M"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Proposed</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Fix-B</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Next-One</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>WaterFall</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Network-based</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>PDAS</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>fixed_preload</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>no_save</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Phong</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>138.379549</v>
+          </cell>
+          <cell r="C4">
+            <v>107.16285415</v>
+          </cell>
+          <cell r="D4">
+            <v>137.49988099999999</v>
+          </cell>
+          <cell r="E4">
+            <v>137.52032904999999</v>
+          </cell>
+          <cell r="F4">
+            <v>140.95589559999999</v>
+          </cell>
+          <cell r="G4">
+            <v>108.25515915</v>
+          </cell>
+          <cell r="H4">
+            <v>115.70660185</v>
+          </cell>
+          <cell r="I4">
+            <v>119.08759135</v>
+          </cell>
+          <cell r="J4">
+            <v>136.46390174999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>3411.424477</v>
+          </cell>
+          <cell r="C5">
+            <v>4288.7718590000004</v>
+          </cell>
+          <cell r="D5">
+            <v>10398.499846999999</v>
+          </cell>
+          <cell r="E5">
+            <v>11204.3372389999</v>
+          </cell>
+          <cell r="F5">
+            <v>4255.4862089999997</v>
+          </cell>
+          <cell r="G5">
+            <v>3269.9377039999999</v>
+          </cell>
+          <cell r="H5">
+            <v>7403.1791479999902</v>
+          </cell>
+          <cell r="I5">
+            <v>12186.940406</v>
+          </cell>
+          <cell r="J5">
+            <v>2978.9633490000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>70.091735049999897</v>
+          </cell>
+          <cell r="C11">
+            <v>65.037681699999993</v>
+          </cell>
+          <cell r="D11">
+            <v>68.850180899999998</v>
+          </cell>
+          <cell r="E11">
+            <v>68.850180899999998</v>
+          </cell>
+          <cell r="F11">
+            <v>70.205548250000007</v>
+          </cell>
+          <cell r="G11">
+            <v>71.217999500000005</v>
+          </cell>
+          <cell r="H11">
+            <v>62.088824549999998</v>
+          </cell>
+          <cell r="I11">
+            <v>72.059849849999907</v>
+          </cell>
+          <cell r="J11">
+            <v>77.911990250000002</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>2087.10855299999</v>
+          </cell>
+          <cell r="C12">
+            <v>2626.4527079999998</v>
+          </cell>
+          <cell r="D12">
+            <v>3282.2179839999999</v>
+          </cell>
+          <cell r="E12">
+            <v>3282.2179839999999</v>
+          </cell>
+          <cell r="F12">
+            <v>3066.4288449999999</v>
+          </cell>
+          <cell r="G12">
+            <v>2581.6783300000002</v>
+          </cell>
+          <cell r="H12">
+            <v>3143.3183600000002</v>
+          </cell>
+          <cell r="I12">
+            <v>3329.9534229999999</v>
+          </cell>
+          <cell r="J12">
+            <v>2345.3693010000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>51.840931499999897</v>
+          </cell>
+          <cell r="C18">
+            <v>50.273487549999999</v>
+          </cell>
+          <cell r="D18">
+            <v>9.3534760499999905</v>
+          </cell>
+          <cell r="E18">
+            <v>9.3534760499999905</v>
+          </cell>
+          <cell r="F18">
+            <v>10.2208392999999</v>
+          </cell>
+          <cell r="G18">
+            <v>56.73894095</v>
+          </cell>
+          <cell r="H18">
+            <v>36.397806449999997</v>
+          </cell>
+          <cell r="I18">
+            <v>53.036196400000001</v>
+          </cell>
+          <cell r="J18">
+            <v>55.396315950000002</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>1487.2717829999899</v>
+          </cell>
+          <cell r="C19">
+            <v>2042.210724</v>
+          </cell>
+          <cell r="D19">
+            <v>2844.9444619999999</v>
+          </cell>
+          <cell r="E19">
+            <v>2844.9444619999999</v>
+          </cell>
+          <cell r="F19">
+            <v>2748.3808759999902</v>
+          </cell>
+          <cell r="G19">
+            <v>2071.0399779999998</v>
+          </cell>
+          <cell r="H19">
+            <v>2315.199807</v>
+          </cell>
+          <cell r="I19">
+            <v>2311.425729</v>
+          </cell>
+          <cell r="J19">
+            <v>1851.99972399999</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>70.940349900000001</v>
+          </cell>
+          <cell r="C25">
+            <v>56.687869300000003</v>
+          </cell>
+          <cell r="D25">
+            <v>23.183430399999899</v>
+          </cell>
+          <cell r="E25">
+            <v>23.202527949999901</v>
+          </cell>
+          <cell r="F25">
+            <v>25.0021450499999</v>
+          </cell>
+          <cell r="G25">
+            <v>61.372028950000001</v>
+          </cell>
+          <cell r="H25">
+            <v>57.352883349999999</v>
+          </cell>
+          <cell r="I25">
+            <v>65.801424949999998</v>
+          </cell>
+          <cell r="J25">
+            <v>75.407705999999905</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>2311.2760539999999</v>
+          </cell>
+          <cell r="C26">
+            <v>2780.2042669999901</v>
+          </cell>
+          <cell r="D26">
+            <v>4570.0132309999899</v>
+          </cell>
+          <cell r="E26">
+            <v>4664.7995349999901</v>
+          </cell>
+          <cell r="F26">
+            <v>3450.3690120000001</v>
+          </cell>
+          <cell r="G26">
+            <v>2511.1707609999999</v>
+          </cell>
+          <cell r="H26">
+            <v>3731.8837600000002</v>
+          </cell>
+          <cell r="I26">
+            <v>4699.6553979999999</v>
+          </cell>
+          <cell r="J26">
+            <v>2340.3117309999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007-2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9927,34 +10270,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -10213,10 +10556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10228,7 +10571,7 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -10250,8 +10593,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10273,8 +10619,11 @@
       <c r="G2">
         <v>2.6814019000000102</v>
       </c>
+      <c r="H2">
+        <v>12.400029399999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10296,8 +10645,11 @@
       <c r="G3">
         <v>11612697.65</v>
       </c>
+      <c r="H3">
+        <v>13457863.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10319,8 +10671,11 @@
       <c r="G4">
         <v>55.5721925</v>
       </c>
+      <c r="H4">
+        <v>72.553984999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10342,8 +10697,11 @@
       <c r="G5">
         <v>4183.6509500000002</v>
       </c>
+      <c r="H5">
+        <v>3696.1902500000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -10365,8 +10723,11 @@
       <c r="G6">
         <v>1.53472961779671</v>
       </c>
+      <c r="H6">
+        <v>1.31345402910898</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -10388,8 +10749,11 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -10411,8 +10775,11 @@
       <c r="G9">
         <v>-5.4507463999999999</v>
       </c>
+      <c r="H9">
+        <v>-5.9809045999999899</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -10434,8 +10801,11 @@
       <c r="G10">
         <v>7801590.3499999996</v>
       </c>
+      <c r="H10">
+        <v>8958526.1500000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10457,8 +10827,11 @@
       <c r="G11">
         <v>29.350614999999902</v>
       </c>
+      <c r="H11">
+        <v>32.373199999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -10480,8 +10853,11 @@
       <c r="G12">
         <v>3169.2586499999902</v>
       </c>
+      <c r="H12">
+        <v>2909.2682</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -10503,8 +10879,11 @@
       <c r="G13">
         <v>1.4246834694118999</v>
       </c>
+      <c r="H13">
+        <v>1.2637557685481</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -10526,8 +10905,11 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -10549,8 +10931,11 @@
       <c r="G16">
         <v>-7.8780840999999997</v>
       </c>
+      <c r="H16">
+        <v>-11.717597899999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -10572,8 +10957,11 @@
       <c r="G17">
         <v>6496744.1500000004</v>
       </c>
+      <c r="H17">
+        <v>7007740.0999999996</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -10595,8 +10983,11 @@
       <c r="G18">
         <v>20.438892500000001</v>
       </c>
+      <c r="H18">
+        <v>18.6258625</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -10618,8 +11009,11 @@
       <c r="G19">
         <v>2516.9164999999998</v>
       </c>
+      <c r="H19">
+        <v>2475.1986000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10641,8 +11035,11 @@
       <c r="G20">
         <v>1.36315228966986</v>
       </c>
+      <c r="H20">
+        <v>1.27203881197491</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -10664,8 +11061,11 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -10687,8 +11087,11 @@
       <c r="G23">
         <v>-14.4909006999999</v>
       </c>
+      <c r="H23">
+        <v>-12.5949740999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -10710,8 +11113,11 @@
       <c r="G24">
         <v>8466383.3000000007</v>
       </c>
+      <c r="H24">
+        <v>9616830.4000000004</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -10733,8 +11139,11 @@
       <c r="G25">
         <v>24.194632500000001</v>
       </c>
+      <c r="H25">
+        <v>30.322347499999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -10756,8 +11165,11 @@
       <c r="G26">
         <v>3136.9722499999998</v>
       </c>
+      <c r="H26">
+        <v>2806.8782500000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -10779,8 +11191,11 @@
       <c r="G27">
         <v>1.42231688557567</v>
       </c>
+      <c r="H27">
+        <v>1.27795527156549</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
@@ -10817,7 +11232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0D993-7A0F-4E59-A595-265B666FF3E8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -12018,45 +12433,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0FE4AB-FA8B-4062-91F3-33A87312A0B6}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -12072,11 +12488,11 @@
       <c r="E2">
         <v>47.161613511999803</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>44.801890627999803</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12092,11 +12508,11 @@
       <c r="E3">
         <v>21562238.846999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>21302918.568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12112,11 +12528,11 @@
       <c r="E4">
         <v>137.52551890000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>134.32521489999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -12132,11 +12548,11 @@
       <c r="E5">
         <v>3417.8234179999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3375.6604629999902</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -12152,11 +12568,11 @@
       <c r="E6">
         <v>1.23564818408641</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.2354346141475401</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -12172,11 +12588,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -12192,11 +12608,11 @@
       <c r="E9">
         <v>9.3780100019999892</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>7.5329767179999898</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -12212,11 +12628,11 @@
       <c r="E10">
         <v>13846579.387</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>13907966.107999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -12232,11 +12648,11 @@
       <c r="E11">
         <v>69.301577550000005</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>67.562141150000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -12252,11 +12668,11 @@
       <c r="E12">
         <v>2091.19986499999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2110.3595730000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -12272,11 +12688,11 @@
       <c r="E13">
         <v>1.2027641763153301</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.2025930770666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12292,11 +12708,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -12312,11 +12728,11 @@
       <c r="E16">
         <v>7.1109871880000002</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4.1631884239999897</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -12332,11 +12748,11 @@
       <c r="E17">
         <v>10052843.378</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10278743.719000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -12352,11 +12768,11 @@
       <c r="E18">
         <v>51.078760699999997</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>49.139313299999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -12372,11 +12788,11 @@
       <c r="E19">
         <v>1506.367133</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1550.948312</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -12392,11 +12808,11 @@
       <c r="E20">
         <v>1.2072347498020299</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.20631348635199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -12412,11 +12828,11 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -12432,11 +12848,11 @@
       <c r="E23">
         <v>5.2100020999999499</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.0106230859999501</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -12452,11 +12868,11 @@
       <c r="E24">
         <v>15041728.124999899</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>14924022.190999901</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12472,11 +12888,11 @@
       <c r="E25">
         <v>69.5342646</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>66.935611850000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -12492,11 +12908,11 @@
       <c r="E26">
         <v>2285.8125030000001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2310.32883699999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -12512,32 +12928,32 @@
       <c r="E27">
         <v>1.19971432992998</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.2002094398535399</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:I29" si="0">AVERAGE(B4,B11,B18,B25)</f>
+        <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>82.813141362499948</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C4,C11,C18,C25)</f>
         <v>82.503727224999977</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4,D11,D18,D25)</f>
         <v>82.403144687499974</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4,E11,E18,E25)</f>
         <v>81.860030437500001</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
+      <c r="G29">
+        <f>AVERAGE(G4,G11,G18,G25)</f>
         <v>79.490570300000002</v>
       </c>
     </row>
@@ -12546,508 +12962,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E67B3-CC58-427A-8175-0EE44CD72631}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>47.626003435999799</v>
-      </c>
-      <c r="C2">
-        <v>47.504801201999797</v>
-      </c>
-      <c r="D2">
-        <v>47.490905879999801</v>
-      </c>
-      <c r="E2">
-        <v>47.161613511999803</v>
-      </c>
-      <c r="F2">
-        <v>44.801890627999803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21676498.890999898</v>
-      </c>
-      <c r="C3">
-        <v>21646301.636999998</v>
-      </c>
-      <c r="D3">
-        <v>21613715.879999999</v>
-      </c>
-      <c r="E3">
-        <v>21562238.846999999</v>
-      </c>
-      <c r="F3">
-        <v>21302918.568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>138.379549</v>
-      </c>
-      <c r="C4">
-        <v>138.15460775</v>
-      </c>
-      <c r="D4">
-        <v>138.0177194</v>
-      </c>
-      <c r="E4">
-        <v>137.52551890000001</v>
-      </c>
-      <c r="F4">
-        <v>134.32521489999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>3411.424477</v>
-      </c>
-      <c r="C5">
-        <v>3411.318925</v>
-      </c>
-      <c r="D5">
-        <v>3411.8028450000002</v>
-      </c>
-      <c r="E5">
-        <v>3417.8234179999999</v>
-      </c>
-      <c r="F5">
-        <v>3375.6604629999902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1.2350466627275101</v>
-      </c>
-      <c r="C6">
-        <v>1.2351057304370601</v>
-      </c>
-      <c r="D6">
-        <v>1.2352137553051601</v>
-      </c>
-      <c r="E6">
-        <v>1.23564818408641</v>
-      </c>
-      <c r="F6">
-        <v>1.2354346141475401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>11.120784489999901</v>
-      </c>
-      <c r="C9">
-        <v>11.032622694000001</v>
-      </c>
-      <c r="D9">
-        <v>10.743107029999999</v>
-      </c>
-      <c r="E9">
-        <v>9.3780100019999892</v>
-      </c>
-      <c r="F9">
-        <v>7.5329767179999898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>13656150.140000001</v>
-      </c>
-      <c r="C10">
-        <v>13658038.589</v>
-      </c>
-      <c r="D10">
-        <v>13735745.555</v>
-      </c>
-      <c r="E10">
-        <v>13846579.387</v>
-      </c>
-      <c r="F10">
-        <v>13907966.107999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>70.091735049999897</v>
-      </c>
-      <c r="C11">
-        <v>70.003327049999996</v>
-      </c>
-      <c r="D11">
-        <v>70.039389249999999</v>
-      </c>
-      <c r="E11">
-        <v>69.301577550000005</v>
-      </c>
-      <c r="F11">
-        <v>67.562141150000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2087.10855299999</v>
-      </c>
-      <c r="C12">
-        <v>2071.3137839999999</v>
-      </c>
-      <c r="D12">
-        <v>2082.13299799999</v>
-      </c>
-      <c r="E12">
-        <v>2091.19986499999</v>
-      </c>
-      <c r="F12">
-        <v>2110.3595730000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>1.20497150666523</v>
-      </c>
-      <c r="C13">
-        <v>1.20450872677703</v>
-      </c>
-      <c r="D13">
-        <v>1.2034860084769201</v>
-      </c>
-      <c r="E13">
-        <v>1.2027641763153301</v>
-      </c>
-      <c r="F13">
-        <v>1.2025930770666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>8.4614960799999892</v>
-      </c>
-      <c r="C16">
-        <v>8.2601648920000006</v>
-      </c>
-      <c r="D16">
-        <v>8.0589165319999996</v>
-      </c>
-      <c r="E16">
-        <v>7.1109871880000002</v>
-      </c>
-      <c r="F16">
-        <v>4.1631884239999897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>9923233.8550000004</v>
-      </c>
-      <c r="C17">
-        <v>9949610.0769999996</v>
-      </c>
-      <c r="D17">
-        <v>9973436.2669999897</v>
-      </c>
-      <c r="E17">
-        <v>10052843.378</v>
-      </c>
-      <c r="F17">
-        <v>10278743.719000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>51.840931499999897</v>
-      </c>
-      <c r="C18">
-        <v>51.769555199999999</v>
-      </c>
-      <c r="D18">
-        <v>51.701261599999903</v>
-      </c>
-      <c r="E18">
-        <v>51.078760699999997</v>
-      </c>
-      <c r="F18">
-        <v>49.139313299999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>1487.2717829999899</v>
-      </c>
-      <c r="C19">
-        <v>1492.0375839999999</v>
-      </c>
-      <c r="D19">
-        <v>1497.8575699999899</v>
-      </c>
-      <c r="E19">
-        <v>1506.367133</v>
-      </c>
-      <c r="F19">
-        <v>1550.948312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1.20882052038777</v>
-      </c>
-      <c r="C20">
-        <v>1.2086517708003199</v>
-      </c>
-      <c r="D20">
-        <v>1.20851944508376</v>
-      </c>
-      <c r="E20">
-        <v>1.2072347498020299</v>
-      </c>
-      <c r="F20">
-        <v>1.20631348635199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>5.2833863919999402</v>
-      </c>
-      <c r="C23">
-        <v>5.1508920359999504</v>
-      </c>
-      <c r="D23">
-        <v>5.3354469599999499</v>
-      </c>
-      <c r="E23">
-        <v>5.2100020999999499</v>
-      </c>
-      <c r="F23">
-        <v>3.0106230859999501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>15387965.8769999</v>
-      </c>
-      <c r="C24">
-        <v>15207156.716</v>
-      </c>
-      <c r="D24">
-        <v>15098327.885</v>
-      </c>
-      <c r="E24">
-        <v>15041728.124999899</v>
-      </c>
-      <c r="F24">
-        <v>14924022.190999901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>70.940349900000001</v>
-      </c>
-      <c r="C25">
-        <v>70.087418899999903</v>
-      </c>
-      <c r="D25">
-        <v>69.854208499999999</v>
-      </c>
-      <c r="E25">
-        <v>69.5342646</v>
-      </c>
-      <c r="F25">
-        <v>66.935611850000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>2311.2760539999999</v>
-      </c>
-      <c r="C26">
-        <v>2305.111985</v>
-      </c>
-      <c r="D26">
-        <v>2294.5519599999898</v>
-      </c>
-      <c r="E26">
-        <v>2285.8125030000001</v>
-      </c>
-      <c r="F26">
-        <v>2310.32883699999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>1.20068084223903</v>
-      </c>
-      <c r="C27">
-        <v>1.2002364758844299</v>
-      </c>
-      <c r="D27">
-        <v>1.1997498085589799</v>
-      </c>
-      <c r="E27">
-        <v>1.19971432992998</v>
-      </c>
-      <c r="F27">
-        <v>1.2002094398535399</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>